--- a/test/data.xlsx
+++ b/test/data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t xml:space="preserve">ลำดับ</t>
   </si>
@@ -39,12 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve">ราคา</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ชื่อผู้รับ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ที่อยู่</t>
   </si>
   <si>
     <t xml:space="preserve">A01</t>
@@ -83,6 +77,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">เชิ้ตสีน้ำตาลลายทาง คอวี ใส่แล้วดูสูงที่ในโลก ผ้าดีมากๆเป็นผ้าทิ้งตัว ไม่เคยใส่ มันใหม่มากกก</t>
     </r>
@@ -102,6 +97,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Devanagari"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ทำหายในตู้เสื้อผ้า</t>
     </r>
@@ -151,6 +147,12 @@
   </si>
   <si>
     <t xml:space="preserve">เดรสสีเหลือง ผ้าลินิน สีนสดใส ใส่แล้วจะรู้สึกร่าเริงเป็นพิเศษ ตัวนี้เป็นซิปหลัง แขนยาว ใส่ง่ายตัวเดียวจบ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ชื่อผู้รับ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ที่อยู่</t>
   </si>
   <si>
     <t xml:space="preserve">รูปแบบการส่ง</t>
@@ -209,12 +211,14 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Devanagari"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Devanagari"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -277,7 +281,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -286,11 +290,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -393,11 +401,11 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="G1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.66"/>
@@ -405,7 +413,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,19 +432,15 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>34</v>
@@ -444,19 +448,19 @@
       <c r="D2" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>42</v>
@@ -464,19 +468,19 @@
       <c r="D3" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>190</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>36</v>
@@ -484,19 +488,19 @@
       <c r="D4" s="0" t="n">
         <v>19.5</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>34</v>
@@ -504,8 +508,8 @@
       <c r="D5" s="0" t="n">
         <v>23.5</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>190</v>
@@ -513,19 +517,19 @@
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>190</v>
@@ -533,19 +537,19 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>120</v>
@@ -553,10 +557,10 @@
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>35</v>
@@ -564,8 +568,8 @@
       <c r="D8" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
+      <c r="E8" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>120</v>
@@ -573,10 +577,10 @@
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>41</v>
@@ -584,8 +588,8 @@
       <c r="D9" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>200</v>
@@ -593,10 +597,10 @@
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>36</v>
@@ -604,8 +608,8 @@
       <c r="D10" s="0" t="n">
         <v>36.5</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>220</v>
@@ -630,46 +634,46 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="1" sqref="G1:I2 H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>37</v>
       </c>
     </row>
